--- a/Gurobi/Datos proyecto.xlsx
+++ b/Gurobi/Datos proyecto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cpere\Desktop\IIC2233\Gurobi opti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D3F8C5-74FC-418E-B5D9-253142C59E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5243AD68-8665-4B9D-B6D4-B790258D2966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="882" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V_jt" sheetId="1" r:id="rId1"/>
@@ -293,13 +293,83 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
@@ -308,64 +378,14 @@
       <c r="C1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
+      <c r="D1">
         <v>4</v>
       </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -645,7 +665,7 @@
   </sheetPr>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>

--- a/Gurobi/Datos proyecto.xlsx
+++ b/Gurobi/Datos proyecto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cpere\Desktop\IIC2233\Gurobi opti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cpere\Desktop\IIC2233\Gurobi opti\Repositorio-de-practica\Gurobi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5243AD68-8665-4B9D-B6D4-B790258D2966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F463EFC9-706C-47DB-9C98-674628D3D225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="882" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="882" firstSheet="2" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V_jt" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,19 @@
     <sheet name="CPV" sheetId="10" r:id="rId10"/>
     <sheet name="CAP_m" sheetId="11" r:id="rId11"/>
     <sheet name="VOL_j" sheetId="12" r:id="rId12"/>
-    <sheet name="CAC_j" sheetId="13" r:id="rId13"/>
-    <sheet name="CCN_mt" sheetId="14" r:id="rId14"/>
-    <sheet name="CD_mt" sheetId="15" r:id="rId15"/>
-    <sheet name="CE_e" sheetId="16" r:id="rId16"/>
-    <sheet name="CDA_m" sheetId="17" r:id="rId17"/>
-    <sheet name="CAM_mt" sheetId="18" r:id="rId18"/>
-    <sheet name="CIN_m" sheetId="19" r:id="rId19"/>
-    <sheet name="PD_t" sheetId="20" r:id="rId20"/>
-    <sheet name="CED_e" sheetId="21" r:id="rId21"/>
-    <sheet name="CMP_m" sheetId="22" r:id="rId22"/>
-    <sheet name="MES" sheetId="23" r:id="rId23"/>
+    <sheet name="CTR_1jm" sheetId="24" r:id="rId13"/>
+    <sheet name="DE_1jt" sheetId="25" r:id="rId14"/>
+    <sheet name="CAC_j" sheetId="13" r:id="rId15"/>
+    <sheet name="CCN_mt" sheetId="14" r:id="rId16"/>
+    <sheet name="CD_mt" sheetId="15" r:id="rId17"/>
+    <sheet name="CE_e" sheetId="16" r:id="rId18"/>
+    <sheet name="CDA_me" sheetId="17" r:id="rId19"/>
+    <sheet name="CAM_1et" sheetId="18" r:id="rId20"/>
+    <sheet name="CIN_m" sheetId="19" r:id="rId21"/>
+    <sheet name="PD_t" sheetId="20" r:id="rId22"/>
+    <sheet name="CED_e" sheetId="21" r:id="rId23"/>
+    <sheet name="CMP_m" sheetId="22" r:id="rId24"/>
+    <sheet name="MES" sheetId="23" r:id="rId25"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -362,7 +364,7 @@
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -391,6 +393,34 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9900E851-EF72-43A4-A57D-9D9D4CA85863}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8D2576-9338-48DB-AB14-F63EEC3D3906}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -405,7 +435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -420,7 +450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -435,7 +465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -450,44 +480,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -536,6 +538,38 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -550,7 +584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -565,7 +599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -580,7 +614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
